--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
@@ -543,10 +543,10 @@
         <v>0.280285</v>
       </c>
       <c r="I2">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J2">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>2.917670120532222</v>
+        <v>4.288915713442223</v>
       </c>
       <c r="R2">
-        <v>26.25903108479</v>
+        <v>38.60024142098</v>
       </c>
       <c r="S2">
-        <v>0.001430246438017095</v>
+        <v>0.001858006894317129</v>
       </c>
       <c r="T2">
-        <v>0.001430246438017095</v>
+        <v>0.00185800689431713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.280285</v>
       </c>
       <c r="I3">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J3">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
         <v>3.778782064908889</v>
@@ -635,10 +635,10 @@
         <v>34.00903858418</v>
       </c>
       <c r="S3">
-        <v>0.001852364854527472</v>
+        <v>0.001637011216312218</v>
       </c>
       <c r="T3">
-        <v>0.001852364854527473</v>
+        <v>0.001637011216312218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.280285</v>
       </c>
       <c r="I4">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J4">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>1.074290393392778</v>
+        <v>1.192313237191667</v>
       </c>
       <c r="R4">
-        <v>9.668613540535</v>
+        <v>10.730819134725</v>
       </c>
       <c r="S4">
-        <v>0.0005266188242918038</v>
+        <v>0.0005165236071076115</v>
       </c>
       <c r="T4">
-        <v>0.0005266188242918038</v>
+        <v>0.0005165236071076116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.280285</v>
       </c>
       <c r="I5">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J5">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>2.370243307037778</v>
+        <v>1.58517592201</v>
       </c>
       <c r="R5">
-        <v>21.33218976334</v>
+        <v>14.26658329809</v>
       </c>
       <c r="S5">
-        <v>0.001161896961300839</v>
+        <v>0.0006867161745727716</v>
       </c>
       <c r="T5">
-        <v>0.001161896961300839</v>
+        <v>0.0006867161745727717</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>42.867363</v>
       </c>
       <c r="I6">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J6">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>446.2344548267246</v>
+        <v>655.9555693830627</v>
       </c>
       <c r="R6">
-        <v>4016.110093440522</v>
+        <v>5903.600124447564</v>
       </c>
       <c r="S6">
-        <v>0.2187448248673165</v>
+        <v>0.2841673867498976</v>
       </c>
       <c r="T6">
-        <v>0.2187448248673165</v>
+        <v>0.2841673867498976</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>42.867363</v>
       </c>
       <c r="I7">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J7">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
-        <v>577.9346824637028</v>
+        <v>577.9346824637026</v>
       </c>
       <c r="R7">
-        <v>5201.412142173324</v>
+        <v>5201.412142173323</v>
       </c>
       <c r="S7">
-        <v>0.2833044816079039</v>
+        <v>0.2503678543080342</v>
       </c>
       <c r="T7">
-        <v>0.2833044816079039</v>
+        <v>0.2503678543080342</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>42.867363</v>
       </c>
       <c r="I8">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J8">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>164.3041770375903</v>
+        <v>182.354832932195</v>
       </c>
       <c r="R8">
-        <v>1478.737593338313</v>
+        <v>1641.193496389755</v>
       </c>
       <c r="S8">
-        <v>0.080542163524805</v>
+        <v>0.0789981802948833</v>
       </c>
       <c r="T8">
-        <v>0.080542163524805</v>
+        <v>0.07899818029488331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>42.867363</v>
       </c>
       <c r="I9">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J9">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>362.5098747386014</v>
+        <v>242.440058039718</v>
       </c>
       <c r="R9">
-        <v>3262.588872647412</v>
+        <v>2181.960522357462</v>
       </c>
       <c r="S9">
-        <v>0.1777029052881175</v>
+        <v>0.105027780770938</v>
       </c>
       <c r="T9">
-        <v>0.1777029052881175</v>
+        <v>0.1050277807709381</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.411646</v>
+        <v>5.503190333333333</v>
       </c>
       <c r="H10">
-        <v>13.234938</v>
+        <v>16.509571</v>
       </c>
       <c r="I10">
-        <v>0.2347344976337197</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="J10">
-        <v>0.2347344976337198</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>137.7711370558413</v>
+        <v>252.6291399257542</v>
       </c>
       <c r="R10">
-        <v>1239.940233502572</v>
+        <v>2273.662259331788</v>
       </c>
       <c r="S10">
-        <v>0.0675356259945309</v>
+        <v>0.1094418065191436</v>
       </c>
       <c r="T10">
-        <v>0.06753562599453092</v>
+        <v>0.1094418065191436</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.411646</v>
+        <v>5.503190333333333</v>
       </c>
       <c r="H11">
-        <v>13.234938</v>
+        <v>16.509571</v>
       </c>
       <c r="I11">
-        <v>0.2347344976337197</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="J11">
-        <v>0.2347344976337198</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>178.4324753182694</v>
+        <v>222.5808401953009</v>
       </c>
       <c r="R11">
-        <v>1605.892277864424</v>
+        <v>2003.227561757708</v>
       </c>
       <c r="S11">
-        <v>0.08746787735001914</v>
+        <v>0.0964245425317192</v>
       </c>
       <c r="T11">
-        <v>0.08746787735001917</v>
+        <v>0.09642454253171921</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.411646</v>
+        <v>5.503190333333333</v>
       </c>
       <c r="H12">
-        <v>13.234938</v>
+        <v>16.509571</v>
       </c>
       <c r="I12">
-        <v>0.2347344976337197</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="J12">
-        <v>0.2347344976337198</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>50.72753358384868</v>
+        <v>70.23058687998167</v>
       </c>
       <c r="R12">
-        <v>456.547802254638</v>
+        <v>632.0752819198351</v>
       </c>
       <c r="S12">
-        <v>0.0248667159824283</v>
+        <v>0.0304246861755685</v>
       </c>
       <c r="T12">
-        <v>0.02486671598242831</v>
+        <v>0.03042468617556851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.411646</v>
+        <v>5.503190333333333</v>
       </c>
       <c r="H13">
-        <v>13.234938</v>
+        <v>16.509571</v>
       </c>
       <c r="I13">
-        <v>0.2347344976337197</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="J13">
-        <v>0.2347344976337198</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N13">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q13">
-        <v>111.9218767096347</v>
+        <v>93.371298613606</v>
       </c>
       <c r="R13">
-        <v>1007.296890386712</v>
+        <v>840.341687522454</v>
       </c>
       <c r="S13">
-        <v>0.05486427830674136</v>
+        <v>0.040449504757506</v>
       </c>
       <c r="T13">
-        <v>0.05486427830674137</v>
+        <v>0.04044950475750601</v>
       </c>
     </row>
   </sheetData>
